--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 1\METADADOS E CONFIGURAÇÕES\METADADOS E CONFIGURAÇÕES FINALIZADOS\CONFIGURAÇÕES GERAIS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134DB78B-0DEE-49C4-93D5-668C6B91D057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,6 +67,18 @@
     <t>DGE_SQE_B1_P9_area_residencia_zona_geografica</t>
   </si>
   <si>
+    <t>select_one sexo</t>
+  </si>
+  <si>
+    <t>_sexo</t>
+  </si>
+  <si>
+    <t>select_one grau_academico</t>
+  </si>
+  <si>
+    <t>_grau_academico</t>
+  </si>
+  <si>
     <t>select_multiple subsistema_modal</t>
   </si>
   <si>
@@ -199,7 +205,7 @@
     <t>DGE_SQE_B3_P5_0_iluminacao_salas_aula_funcionamento_escola_suficiente</t>
   </si>
   <si>
-    <t>select_one ventilacao_salas_aula_funcionamento_adequada</t>
+    <t>select_one ventilacao_salas_aula_funcionamento_adequadas</t>
   </si>
   <si>
     <t>DGE_SQE_B3_P6_0_ventilacao_salas_aula_funcionamento_adequada</t>
@@ -239,24 +245,13 @@
   </si>
   <si>
     <t>DGE_SQE_B4_P7_1_assembleia_funcionou_ano_anterior</t>
-  </si>
-  <si>
-    <t>select_one sexo</t>
-  </si>
-  <si>
-    <t>_sexo</t>
-  </si>
-  <si>
-    <t>select_one grau_academico</t>
-  </si>
-  <si>
-    <t>_grau_academico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,20 +281,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -310,10 +308,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -351,71 +349,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,7 +441,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -466,11 +464,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -479,13 +477,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -495,7 +493,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -504,7 +502,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -513,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -521,10 +519,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -589,327 +587,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="90.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="98.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="49.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B36" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -37,7 +37,7 @@
     <t>DGE_SQE_B1_P4_provincia</t>
   </si>
   <si>
-    <t>provincia_selected=${QEPE_DGE_SQE_B1_P4_provincia}</t>
+    <t>provincia_selected=${DGE_SQE_B1_P4_provincia}</t>
   </si>
   <si>
     <t>select_one municipio</t>
@@ -46,7 +46,7 @@
     <t>DGE_SQE_B1_P5_municipio</t>
   </si>
   <si>
-    <t>municipio_selected=${QEPE_DGE_SQE_B1_P5_municipio}</t>
+    <t>municipio_selected=${DGE_SQE_B1_P5_municipio}</t>
   </si>
   <si>
     <t>select_one comuna_distrito</t>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9EB0DB-0A18-443F-973C-7CF41722313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -37,24 +43,27 @@
     <t>DGE_SQE_B1_P4_provincia</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>select_one municipio</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P5_municipio</t>
+  </si>
+  <si>
     <t>provincia_selected=${DGE_SQE_B1_P4_provincia}</t>
   </si>
   <si>
-    <t>select_one municipio</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P5_municipio</t>
+    <t>select_one comuna_distrito</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P6_comuna_distrito</t>
   </si>
   <si>
     <t>municipio_selected=${DGE_SQE_B1_P5_municipio}</t>
   </si>
   <si>
-    <t>select_one comuna_distrito</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P6_comuna_distrito</t>
-  </si>
-  <si>
     <t>select_one natureza_da_escola</t>
   </si>
   <si>
@@ -70,15 +79,9 @@
     <t>select_one sexo</t>
   </si>
   <si>
-    <t>_sexo</t>
-  </si>
-  <si>
     <t>select_one grau_academico</t>
   </si>
   <si>
-    <t>_grau_academico</t>
-  </si>
-  <si>
     <t>select_multiple subsistema_modal</t>
   </si>
   <si>
@@ -245,13 +248,42 @@
   </si>
   <si>
     <t>DGE_SQE_B4_P7_1_assembleia_funcionou_ano_anterior</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_I_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_II_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_III_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_IV_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_V_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_I_4_grau_academico_mais_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_II_4_grau_academ_mais_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_III_4_grau_academico_mais_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_IV_4_grau_academico_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_V_4_grau_academico_elevado_concluido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,23 +313,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -308,10 +338,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -349,71 +379,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,7 +471,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -464,11 +494,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -477,13 +507,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,7 +523,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -502,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -519,10 +549,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -587,359 +617,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="90.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="98.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="90.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="B37" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="B39" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+      <c r="B40" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+      <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+      <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+      <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+      <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9EB0DB-0A18-443F-973C-7CF41722313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,9 +37,6 @@
     <t>DGE_SQE_B1_P4_provincia</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>select_one municipio</t>
   </si>
   <si>
@@ -79,9 +70,39 @@
     <t>select_one sexo</t>
   </si>
   <si>
+    <t>DGE_SQE_B1_P12_I_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_II_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_III_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_IV_2_sexo</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_V_2_sexo</t>
+  </si>
+  <si>
     <t>select_one grau_academico</t>
   </si>
   <si>
+    <t>DGE_SQE_B1_P12_I_4_grau_academico_mais_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_II_4_grau_academ_mais_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_III_4_grau_academico_mais_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_IV_4_grau_academico_elevado_concluido</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P12_V_4_grau_academico_elevado_concluido</t>
+  </si>
+  <si>
     <t>select_multiple subsistema_modal</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>DGE_SQE_B1_P13_1_classes_estapas</t>
   </si>
   <si>
+    <t>area_selected=${DGE_SQE_B1_P13_0_subsistema_modal}</t>
+  </si>
+  <si>
     <t>select_one possui_acesso_internet</t>
   </si>
   <si>
@@ -248,42 +272,13 @@
   </si>
   <si>
     <t>DGE_SQE_B4_P7_1_assembleia_funcionou_ano_anterior</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_I_2_sexo</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_II_2_sexo</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_III_2_sexo</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_IV_2_sexo</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_V_2_sexo</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_I_4_grau_academico_mais_elevado_concluido</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_II_4_grau_academ_mais_elevado_concluido</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_III_4_grau_academico_mais_elevado_concluido</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_IV_4_grau_academico_elevado_concluido</t>
-  </si>
-  <si>
-    <t>DGE_SQE_B1_P12_V_4_grau_academico_elevado_concluido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,21 +308,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,10 +335,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -379,71 +376,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,7 +468,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -494,11 +491,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -507,13 +504,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,7 +520,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -532,7 +529,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -549,10 +546,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -617,394 +614,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="90.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="98.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="49.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B41" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C41" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C44" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
+      <c r="C45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E98AF-37D0-4F7C-AE01-78E8865CF06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,18 +49,12 @@
     <t>DGE_SQE_B1_P5_municipio</t>
   </si>
   <si>
-    <t>provincia_selected=${DGE_SQE_B1_P4_provincia}</t>
-  </si>
-  <si>
     <t>select_one comuna_distrito</t>
   </si>
   <si>
     <t>DGE_SQE_B1_P6_comuna_distrito</t>
   </si>
   <si>
-    <t>municipio_selected=${DGE_SQE_B1_P5_municipio}</t>
-  </si>
-  <si>
     <t>select_one natureza_da_escola</t>
   </si>
   <si>
@@ -115,9 +115,6 @@
     <t>DGE_SQE_B1_P13_1_classes_estapas</t>
   </si>
   <si>
-    <t>area_selected=${DGE_SQE_B1_P13_0_subsistema_modal}</t>
-  </si>
-  <si>
     <t>select_one possui_acesso_internet</t>
   </si>
   <si>
@@ -272,13 +269,31 @@
   </si>
   <si>
     <t>DGE_SQE_B4_P7_1_assembleia_funcionou_ano_anterior</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal} != '') and (
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1') and selected(area_selected, 'sm_1') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2') and selected(area_selected, 'sm_2') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3') and selected(area_selected, 'sm_3') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4') and selected(area_selected, 'sm_4') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5') and selected(area_selected, 'sm_5') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6') and selected(area_selected, 'sm_6') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7') and selected(area_selected, 'sm_7') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8') and selected(area_selected, 'sm_8') or
+  selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9') and selected(area_selected, 'sm_9')
+)</t>
+  </si>
+  <si>
+    <t>provincia_selected=${(prefixo)_DGE_SQE_B1_P4_provincia}</t>
+  </si>
+  <si>
+    <t>municipio_selected=${(prefixo)_DGE_SQE_B1_P5_municipio}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,23 +323,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -376,71 +388,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,7 +480,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -491,11 +503,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -504,13 +516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -520,7 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -529,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -538,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,10 +558,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -614,433 +626,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="88.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="90.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="98.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="90.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+      <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+      <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+      <c r="B45" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E98AF-37D0-4F7C-AE01-78E8865CF06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC7A41-3BBA-422E-8F0B-DEF60A087114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>municipio_selected=${(prefixo)_DGE_SQE_B1_P5_municipio}</t>
+  </si>
+  <si>
+    <t>select_multiple tipologia</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B1_P13_2_tipologia</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,6 +1021,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC7A41-3BBA-422E-8F0B-DEF60A087114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEB7CA8-68D7-4D1F-A4D4-2932B2E472EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade</t>
   </si>
   <si>
-    <t>select_one sistema_esvaziamento_transporte_residuo_liquido</t>
-  </si>
-  <si>
     <t>DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>DGE_SQE_B1_P13_2_tipologia</t>
+  </si>
+  <si>
+    <t>select_multiple sistema_esvaziamento_transporte_residuo_liquido</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,178 +855,178 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
         <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
         <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
         <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
         <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
         <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
         <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E889043-CE68-44C8-8ECF-5F60DF6F1630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -297,23 +290,17 @@
     <t>DGE_SQE_B4_P7_1_assembleia_funcionou_ano_anterior</t>
   </si>
   <si>
-    <t>select_multiple tipologia</t>
-  </si>
-  <si>
     <t>DGE_SQE_B1_P13_2_tipologia</t>
+  </si>
+  <si>
+    <t>select_one tipologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,353 +308,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -675,310 +325,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,25 +627,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="88.6666666666667" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="88.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="90.1047619047619" customWidth="1"/>
-    <col min="2" max="2" width="98.7809523809524" customWidth="1"/>
-    <col min="3" max="3" width="84.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="90.140625" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1295,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1349,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1405,7 +770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1421,7 +786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1429,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1448,7 +813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1456,7 +821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1464,7 +829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1480,7 +845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1496,7 +861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1504,7 +869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1512,7 +877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1520,7 +885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1528,7 +893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1536,7 +901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1544,7 +909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1658,14 +1023,13 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/selects.xlsx
+++ b/selects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E889043-CE68-44C8-8ECF-5F60DF6F1630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865DBEA-7597-4CDE-98B5-0D96EF43318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade</t>
   </si>
   <si>
-    <t>select_multiple sistema_esvaziamento_transporte_residuo_liquido</t>
-  </si>
-  <si>
     <t>DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>select_one tipologia</t>
+  </si>
+  <si>
+    <t>select_one sistema_esvaziamento_transporte_residuo_liquido</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.7109375" defaultRowHeight="15"/>
@@ -855,178 +855,178 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
         <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
         <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
         <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
         <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
         <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/selects.xlsx
+++ b/selects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Documents\OCHILI\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865DBEA-7597-4CDE-98B5-0D96EF43318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C1864-2936-4688-AC99-6B4AB043CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>select_one sistema_esvaziamento_transporte_residuo_liquido</t>
+  </si>
+  <si>
+    <t>select_one outras_infraestrutura</t>
+  </si>
+  <si>
+    <t>DGE_SQE_B2_P1_28_outras_infraestrutura_suporte</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.7109375" defaultRowHeight="15"/>
@@ -1029,6 +1035,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
